--- a/Tables/Telework_country.xlsx
+++ b/Tables/Telework_country.xlsx
@@ -614,7 +614,7 @@
         <v>0.5045684918418276</v>
       </c>
       <c r="F9">
-        <v>3.992305628991493</v>
+        <v>3.992305628991492</v>
       </c>
       <c r="G9">
         <v>1489.847339831293</v>
@@ -991,7 +991,7 @@
         <v>0.1627222170313354</v>
       </c>
       <c r="F23">
-        <v>3.435759443826031</v>
+        <v>3.43575944382603</v>
       </c>
       <c r="G23">
         <v>539.0781403779984</v>
@@ -1984,7 +1984,7 @@
         <v>0.3891140143021814</v>
       </c>
       <c r="F59">
-        <v>7.562019089810796</v>
+        <v>7.562019089810795</v>
       </c>
       <c r="G59">
         <v>7954.172237951308</v>
@@ -2040,7 +2040,7 @@
         <v>0.4674656205187651</v>
       </c>
       <c r="F61">
-        <v>6.663163601539272</v>
+        <v>6.663163601539273</v>
       </c>
       <c r="G61">
         <v>9589.458694323897</v>
@@ -2208,7 +2208,7 @@
         <v>0.1416338187134274</v>
       </c>
       <c r="F67">
-        <v>1.685724609696713</v>
+        <v>1.685724609696712</v>
       </c>
       <c r="G67">
         <v>274.8978550978936</v>
@@ -2432,7 +2432,7 @@
         <v>0.4608625703810508</v>
       </c>
       <c r="F75">
-        <v>4.953420511786563</v>
+        <v>4.953420511786564</v>
       </c>
       <c r="G75">
         <v>931.9117293283343</v>
@@ -3688,7 +3688,7 @@
         <v>0.4487227847769521</v>
       </c>
       <c r="F122">
-        <v>6.081514891058677</v>
+        <v>6.081514891058678</v>
       </c>
       <c r="G122">
         <v>1785.387464958709</v>
@@ -3996,7 +3996,7 @@
         <v>0.1995326875432695</v>
       </c>
       <c r="F133">
-        <v>1.548403860761022</v>
+        <v>1.548403860761023</v>
       </c>
       <c r="G133">
         <v>246.3111402802169</v>
